--- a/medicine/Enfance/Ally_Condie/Ally_Condie.xlsx
+++ b/medicine/Enfance/Ally_Condie/Ally_Condie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ally Condie, née Allyson Braithwaite Condie le 2 novembre 1978 à Cedar City en Utah, est une écrivaine américaine de romans destinés à la jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ally Condie, née Allyson Braithwaite Condie le 2 novembre 1978 à Cedar City en Utah, est une écrivaine américaine de romans destinés à la jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née dans le sud de l'Utah, Allyson Condie a enseigné l'anglais dans des lycées de cet État et celui de New York. Elle est ensuite devenue auteur à plein temps. Elle vit à proximité de Salt Lake City avec son mari et ses quatre enfants[2].
-Ally Condie aime donc lire et écrire, mais aussi courir et écouter son mari jouer de la guitare[1].
-Promise (Matched) a fait partie des meilleures ventes de livres pour enfants en 2012[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née dans le sud de l'Utah, Allyson Condie a enseigné l'anglais dans des lycées de cet État et celui de New York. Elle est ensuite devenue auteur à plein temps. Elle vit à proximité de Salt Lake City avec son mari et ses quatre enfants.
+Ally Condie aime donc lire et écrire, mais aussi courir et écouter son mari jouer de la guitare.
+Promise (Matched) a fait partie des meilleures ventes de livres pour enfants en 2012.
 </t>
         </is>
       </c>
@@ -546,21 +560,128 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Yearbook
-(en) Yearbook, 2006
+          <t>Série Yearbook</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Yearbook, 2006
 (en) First Day, 2007
-(en) Reunion, 2008
-Série Promise
-Promise, Gallimard Jeunesse, 2011 ((en) Matched, 2010), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-063440-8)
+(en) Reunion, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ally_Condie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ally_Condie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Promise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Promise, Gallimard Jeunesse, 2011 ((en) Matched, 2010), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-063440-8)
 Insoumise, Gallimard Jeunesse, 2012 ((en) Crossed, 2011), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-063440-8)
-Conquise, Gallimard Jeunesse, 2013 ((en) Reached, 2012), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-063442-2)
-Série Darkdeep
-Cette série est coécrite avec Brendan Reichs.
+Conquise, Gallimard Jeunesse, 2013 ((en) Reached, 2012), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-063442-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ally_Condie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ally_Condie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Darkdeep</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Brendan Reichs.
 L'Infinoir, Michel Lafon, 2019 ((en) The Darkdeep, 2018), trad. Cyril Laumonier  (ISBN 978-2-7499-3895-0)
 La Créature, Michel Lafon, 2020 ((en) The Beast, 2019), trad. Cyril Laumonier  (ISBN 978-2-7499-3896-7)
-(en) The Torchbearers, 2020
-Romans indépendants
-(en) Freshman For President, 2008
+(en) The Torchbearers, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ally_Condie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ally_Condie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Freshman For President, 2008
 (en) Being Sixteen, 2010
 Atlantia, Gallimard Jeunesse, 2015 ((en) Atlantia, 2014), trad. Vanessa Rubio-Barreau  (ISBN 978-2-07-066338-5)
 L'Été de Summerlost, Gallimard Jeunesse, 2017 ((en) Summerlost, 2016), trad. Julie Lopez  (ISBN 978-2-07-060144-8)
